--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_2_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-858146.1356286671</v>
+        <v>-860033.717145069</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>25.85036383430328</v>
       </c>
       <c r="G2" t="n">
-        <v>349.1597494098606</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.264003285459112</v>
+        <v>131.5166709741981</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>272.3533536978983</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -944,16 +944,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>152.1157524910536</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>162.3364906735232</v>
+        <v>127.7594927339631</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>88.71628385198761</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,22 +1181,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>11.95189872950489</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>67.25025504144566</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>123.9634105663099</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274037</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229326</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1585,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>119.1507148924257</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.797245289947568</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>139.1537278750036</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>177.9250035870151</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>54.97117385624327</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>221.2306574774761</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>143.3158222056512</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>179.4137448111803</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>3.250241677064963</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>207.0920728594999</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -2764,7 +2764,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>215.9495548965048</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>114.4314237113287</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
         <v>93.41221638965524</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801206</v>
       </c>
       <c r="F31" t="n">
         <v>90.21779139437413</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>54.75682873269435</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897901</v>
       </c>
       <c r="I31" t="n">
-        <v>43.97186549014435</v>
+        <v>55.21598883571486</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523569</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3007,7 +3007,7 @@
         <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>231.3197417080339</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463244</v>
+        <v>42.28735533463102</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463134</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>799.3633507333279</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C2" t="n">
-        <v>799.3633507333279</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D2" t="n">
-        <v>799.3633507333279</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="E2" t="n">
-        <v>413.5750981350837</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="F2" t="n">
-        <v>406.6295973858802</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1949.568281034341</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>1576.102522773261</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y2" t="n">
-        <v>1185.96319079745</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.8626623130036</v>
+        <v>595.2838620102744</v>
       </c>
       <c r="C4" t="n">
-        <v>498.8626623130036</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="D4" t="n">
-        <v>348.7460229006679</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="E4" t="n">
-        <v>200.8329293182748</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>426.3476790823676</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4528,10 +4528,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>1697.251320989585</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
         <v>1036.358670716696</v>
@@ -4562,55 +4562,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U5" t="n">
-        <v>2093.65597159146</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V5" t="n">
-        <v>1762.593084247889</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W5" t="n">
-        <v>1409.824428977775</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X5" t="n">
-        <v>1036.358670716696</v>
+        <v>1697.251320989585</v>
       </c>
       <c r="Y5" t="n">
-        <v>1036.358670716696</v>
+        <v>1697.251320989585</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4665,22 +4665,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>564.1527310008552</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>1452.061221751178</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1452.061221751178</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1093.795523144427</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>708.007270546183</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>297.0213657565754</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2122.807401540017</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X8" t="n">
-        <v>1749.341643278937</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.341643278937</v>
+        <v>1838.661061815299</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>290.8087152951862</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="C10" t="n">
-        <v>121.8725323672793</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>121.8725323672793</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>484.423641878219</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="U10" t="n">
-        <v>290.8087152951862</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="V10" t="n">
-        <v>290.8087152951862</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="W10" t="n">
-        <v>290.8087152951862</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="X10" t="n">
-        <v>290.8087152951862</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="Y10" t="n">
-        <v>290.8087152951862</v>
+        <v>359.2080756496231</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>822.9089152986068</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C13" t="n">
-        <v>653.9727323706999</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>653.9727323706999</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799358</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V13" t="n">
-        <v>1043.701494442137</v>
+        <v>820.5263570570738</v>
       </c>
       <c r="W13" t="n">
-        <v>1043.701494442137</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="X13" t="n">
-        <v>1043.701494442137</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y13" t="n">
-        <v>822.9089152986068</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="14">
@@ -5264,16 +5264,16 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
@@ -5285,19 +5285,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>713.8401545872507</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>713.8401545872507</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>563.723515174915</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5443,13 +5443,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1075.21084526296</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W16" t="n">
-        <v>895.4886194174904</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X16" t="n">
-        <v>895.4886194174904</v>
+        <v>237.7764125461481</v>
       </c>
       <c r="Y16" t="n">
-        <v>895.4886194174904</v>
+        <v>237.7764125461481</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>321.6797126268223</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="C19" t="n">
-        <v>152.7435296989154</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D19" t="n">
-        <v>152.7435296989154</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5674,13 +5674,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5704,19 +5704,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609662</v>
+        <v>986.0022165609661</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550793</v>
+        <v>762.5369059776568</v>
       </c>
       <c r="W19" t="n">
-        <v>731.3177283550793</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X19" t="n">
-        <v>503.328177457062</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="Y19" t="n">
-        <v>503.328177457062</v>
+        <v>245.1301850426789</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5908,13 +5908,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5938,22 +5938,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765184</v>
+        <v>1117.770255613677</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706316</v>
+        <v>863.0857674077897</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336709</v>
+        <v>573.668597370829</v>
       </c>
       <c r="X22" t="n">
-        <v>241.9805482336709</v>
+        <v>573.668597370829</v>
       </c>
       <c r="Y22" t="n">
-        <v>241.9805482336709</v>
+        <v>573.668597370829</v>
       </c>
     </row>
     <row r="23">
@@ -5981,34 +5981,34 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>485.520085263587</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>268.675485541541</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>268.675485541541</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>268.675485541541</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>268.675485541541</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1089.812348494162</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>800.6837097077201</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V25" t="n">
-        <v>545.9992215018333</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>496.6650364395583</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>268.675485541541</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>268.675485541541</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6239,13 +6239,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6291,13 +6291,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="C28" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="D28" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E28" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F28" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G28" t="n">
         <v>247.6350999123425</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241954</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,7 +6400,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557903</v>
@@ -6412,22 +6412,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1080.865396941632</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765189</v>
+        <v>791.73675815519</v>
       </c>
       <c r="V28" t="n">
-        <v>531.397718270632</v>
+        <v>537.0522699493031</v>
       </c>
       <c r="W28" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="X28" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="Y28" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123425</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6482,28 +6482,28 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542191</v>
+        <v>693.7702910355392</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542191</v>
+        <v>580.5949733890031</v>
       </c>
       <c r="D31" t="n">
-        <v>345.1766558232544</v>
+        <v>486.2391992580382</v>
       </c>
       <c r="E31" t="n">
-        <v>345.1766558232544</v>
+        <v>394.0869709570159</v>
       </c>
       <c r="F31" t="n">
-        <v>254.047573606715</v>
+        <v>302.9578887404764</v>
       </c>
       <c r="G31" t="n">
-        <v>141.6331172079064</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
-        <v>141.6331172079064</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
         <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962054</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1623.942368323875</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1390.574594818804</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1390.574594818804</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818938</v>
+        <v>1156.918290063214</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652472</v>
+        <v>984.6896044465673</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.420029503088</v>
+        <v>819.6578905844081</v>
       </c>
     </row>
     <row r="32">
@@ -6677,40 +6677,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6719,7 +6719,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,19 +6780,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103136</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982984</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6883,7 +6883,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515098</v>
@@ -6950,7 +6950,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
@@ -6962,25 +6962,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,31 +7114,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7172,13 +7172,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7363,7 +7363,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7409,13 +7409,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7451,10 +7451,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,7 +7506,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,10 +7804,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.686330625496</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231148</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>288.4091825776746</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>132.9869284314023</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>284.7257530466434</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>40.67825230693367</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>108.5979947495759</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>91.4627887903259</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23947,10 +23947,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>30.90698584635186</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>36.51615797628608</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,10 +24133,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>106.823607587397</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>142.1708063458663</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24415,22 +24415,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>14.45548819888938</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24652,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>5.598006161884397</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>172.0915746252622</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>56.53348310212613</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>11.24412334557054</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523566</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3.055333763768431e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26317,13 +26317,13 @@
         <v>184734.3982194637</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="E2" t="n">
-        <v>175963.076881969</v>
+        <v>175963.0768819691</v>
       </c>
       <c r="F2" t="n">
-        <v>175963.076881969</v>
+        <v>175963.0768819691</v>
       </c>
       <c r="G2" t="n">
         <v>175963.076881969</v>
@@ -26332,25 +26332,25 @@
         <v>175963.076881969</v>
       </c>
       <c r="I2" t="n">
+        <v>175963.0768819689</v>
+      </c>
+      <c r="J2" t="n">
         <v>175963.076881969</v>
-      </c>
-      <c r="J2" t="n">
-        <v>175963.0768819691</v>
       </c>
       <c r="K2" t="n">
         <v>183069.9618053713</v>
       </c>
       <c r="L2" t="n">
+        <v>184734.3982194639</v>
+      </c>
+      <c r="M2" t="n">
         <v>184734.3982194641</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>184734.3982194637</v>
+      </c>
+      <c r="O2" t="n">
         <v>184734.3982194639</v>
-      </c>
-      <c r="N2" t="n">
-        <v>184734.3982194638</v>
-      </c>
-      <c r="O2" t="n">
-        <v>184734.3982194637</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194641</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26393,7 +26393,7 @@
         <v>44162.60530284569</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086683</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26421,7 +26421,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
@@ -26430,7 +26430,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.66962143911</v>
@@ -26439,22 +26439,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563565</v>
+        <v>33210.29213563564</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275954</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26470,19 +26470,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26522,46 +26522,46 @@
         <v>-644867.5173097128</v>
       </c>
       <c r="C6" t="n">
-        <v>-54899.63809516837</v>
+        <v>-54899.63809516835</v>
       </c>
       <c r="D6" t="n">
-        <v>-54899.63809516846</v>
+        <v>-54899.63809516847</v>
       </c>
       <c r="E6" t="n">
-        <v>-456229.9551650828</v>
+        <v>-456327.4142910548</v>
       </c>
       <c r="F6" t="n">
-        <v>68930.08131181331</v>
+        <v>68832.6221858412</v>
       </c>
       <c r="G6" t="n">
-        <v>68930.08131181325</v>
+        <v>68832.6221858411</v>
       </c>
       <c r="H6" t="n">
-        <v>68930.08131181328</v>
+        <v>68832.62218584109</v>
       </c>
       <c r="I6" t="n">
-        <v>68930.08131181324</v>
+        <v>68832.62218584087</v>
       </c>
       <c r="J6" t="n">
-        <v>-107493.1378807796</v>
+        <v>-107590.5970067519</v>
       </c>
       <c r="K6" t="n">
-        <v>9068.855836667179</v>
+        <v>9050.362098732836</v>
       </c>
       <c r="L6" t="n">
-        <v>39211.9287358123</v>
+        <v>39211.92873581209</v>
       </c>
       <c r="M6" t="n">
-        <v>-85246.17969715835</v>
+        <v>-85246.17969715799</v>
       </c>
       <c r="N6" t="n">
         <v>49554.83553667877</v>
       </c>
       <c r="O6" t="n">
-        <v>49554.83553667871</v>
+        <v>49554.83553667889</v>
       </c>
       <c r="P6" t="n">
-        <v>5392.230233833398</v>
+        <v>5392.230233833427</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26744,37 +26744,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="M3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="J3" t="n">
+      <c r="N3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26935,7 +26935,7 @@
         <v>55.20325662855711</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108357</v>
+        <v>12.92863350108353</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>381.0256819074082</v>
       </c>
       <c r="G2" t="n">
-        <v>64.62442061093435</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27427,10 +27427,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178.5679768964782</v>
+        <v>48.31530920773915</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>92.91953807310921</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>99.10841501723573</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>89.80115265030477</v>
+        <v>124.3781505898649</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>325.0678861688074</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>337.2890699879081</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>79.18370760512352</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>101.0716948917744</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35738,10 +35738,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>642.8663885318339</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35902,10 +35902,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110541</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>570.7728848187828</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,19 +37865,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
